--- a/DBStructure_Previous.xlsx
+++ b/DBStructure_Previous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="9375" activeTab="2"/>
+    <workbookView windowWidth="19410" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619">
   <si>
     <t>DocumentMaster</t>
   </si>
@@ -389,27 +389,192 @@
     <t>Short Name</t>
   </si>
   <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Session Value</t>
+  </si>
+  <si>
     <t>Created Date</t>
   </si>
   <si>
+    <t>Server DB Date &amp; time</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Created by</t>
-  </si>
-  <si>
-    <t>Session Value</t>
-  </si>
-  <si>
-    <t>Server DB Date &amp; time</t>
-  </si>
-  <si>
     <t>Option button</t>
   </si>
   <si>
     <t>See tablestructure sheet,  table 5</t>
   </si>
   <si>
+    <t>TagTypeMst</t>
+  </si>
+  <si>
+    <t>TagTypeId</t>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+  </si>
+  <si>
+    <t>TagTypeid</t>
+  </si>
+  <si>
+    <t>TagTypeDesc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>See tablestructure sheet,  table 14</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>TagMst</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TagGrpId</t>
+  </si>
+  <si>
+    <t>TagId</t>
+  </si>
+  <si>
+    <t>TagNm</t>
+  </si>
+  <si>
+    <t>ListNo</t>
+  </si>
+  <si>
+    <t>DisplaySeqNo</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>Invoice Remark</t>
+  </si>
+  <si>
+    <t>Invoice Recd From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Listid =2 means vendor list and List no 1 menas name of vendor </t>
+  </si>
+  <si>
+    <t>Purchase For Department</t>
+  </si>
+  <si>
+    <t>Refer list data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t>DispSeqNo</t>
+  </si>
+  <si>
+    <t>CreatedDateTime</t>
+  </si>
+  <si>
+    <t>FolderId</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>RootId</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>OrgMst</t>
+  </si>
+  <si>
+    <t>Class folder</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Sub Folder</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>Sk</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>FileTagSData</t>
+  </si>
+  <si>
+    <t>FTagId</t>
+  </si>
+  <si>
+    <t>FtagId</t>
+  </si>
+  <si>
+    <t>FileId</t>
+  </si>
+  <si>
+    <t>SeqNo</t>
+  </si>
+  <si>
+    <t>TagData</t>
+  </si>
+  <si>
+    <t>ax101</t>
+  </si>
+  <si>
+    <t>Test remark</t>
+  </si>
+  <si>
+    <t>XYZ Ltd</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
     <t>Table Name</t>
   </si>
   <si>
@@ -422,9 +587,6 @@
     <t>Various Departments of Office</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
@@ -536,9 +698,6 @@
     <t>System configuration file</t>
   </si>
   <si>
-    <t>Pk</t>
-  </si>
-  <si>
     <t>Char(3)</t>
   </si>
   <si>
@@ -551,27 +710,18 @@
     <t>Composite key</t>
   </si>
   <si>
-    <t>Sk</t>
-  </si>
-  <si>
     <t>Char(4)</t>
   </si>
   <si>
     <t>Secondary key value</t>
   </si>
   <si>
-    <t>Ds</t>
-  </si>
-  <si>
     <t>varchar(50)</t>
   </si>
   <si>
     <t>Param description</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Param value</t>
   </si>
   <si>
@@ -737,9 +887,6 @@
     <t>Upw3</t>
   </si>
   <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
     <t>CreationDate</t>
   </si>
   <si>
@@ -1034,9 +1181,6 @@
     <t>Details of Folder</t>
   </si>
   <si>
-    <t>FolderId</t>
-  </si>
-  <si>
     <t>Big Integer</t>
   </si>
   <si>
@@ -1046,21 +1190,24 @@
     <t>Primary key</t>
   </si>
   <si>
-    <t>ParentId</t>
+    <t>PK_FolderMst</t>
   </si>
   <si>
     <t>Parent id of this folder id.</t>
   </si>
   <si>
-    <t>RootId</t>
-  </si>
-  <si>
     <t>Root Id of this Folder id. Folder itself a root then root id &amp; parent id must be -1</t>
   </si>
   <si>
+    <t>FK_FolderMst_DeptMst_DeptId</t>
+  </si>
+  <si>
     <t>FldrNm</t>
   </si>
   <si>
+    <t>Name of Folder</t>
+  </si>
+  <si>
     <t>Chk_FolderMst_InnerFolders</t>
   </si>
   <si>
@@ -1070,10 +1217,13 @@
     <t>does class can read only access to any users/person. "Y" or "N" default "N"</t>
   </si>
   <si>
+    <t>User id who created folder</t>
+  </si>
+  <si>
     <t>FK_FolderMst_UserMst</t>
   </si>
   <si>
-    <t>CreatedDateTime</t>
+    <t>Folder created date time</t>
   </si>
   <si>
     <t>12 ListMst</t>
@@ -1091,6 +1241,9 @@
     <t>List description</t>
   </si>
   <si>
+    <t>Unique key</t>
+  </si>
+  <si>
     <t>User id who created list</t>
   </si>
   <si>
@@ -1103,6 +1256,9 @@
     <t>Status "A" or "D" default "A"</t>
   </si>
   <si>
+    <t>Default 1 record must be in table i.e (0 as ListId, "Not Applicable" as ListName)</t>
+  </si>
+  <si>
     <t>13 ListData</t>
   </si>
   <si>
@@ -1112,19 +1268,385 @@
     <t>PK_ListData</t>
   </si>
   <si>
-    <t>ListNo</t>
-  </si>
-  <si>
     <t>Unique no against list id</t>
   </si>
   <si>
     <t>Fk_ListData_UserMst</t>
   </si>
   <si>
-    <t>14 TagGrpMst</t>
+    <t>Default 1 record must be in table i.e. (0 as listid, 0 as ListNo, "Not applicable" as listvalue)</t>
+  </si>
+  <si>
+    <t>14 TagTypeMst</t>
+  </si>
+  <si>
+    <t>Details of Tag data type</t>
+  </si>
+  <si>
+    <t>Identity of Tag Type</t>
+  </si>
+  <si>
+    <t>Pk_TagTypeMst</t>
+  </si>
+  <si>
+    <t>Auto increment</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Nvarchar(100)</t>
+  </si>
+  <si>
+    <t>Unique description of tag type</t>
+  </si>
+  <si>
+    <t>TagTypeShrtDesc</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>Default "A"</t>
+  </si>
+  <si>
+    <t>15 TagGrpMst</t>
   </si>
   <si>
     <t>Details of Tag Groups</t>
+  </si>
+  <si>
+    <t>Big Int</t>
+  </si>
+  <si>
+    <t>Identity of tag group</t>
+  </si>
+  <si>
+    <t>Pk_TagGrpMst</t>
+  </si>
+  <si>
+    <t>TagGrpNm</t>
+  </si>
+  <si>
+    <t>Tag group name</t>
+  </si>
+  <si>
+    <t>User id who created Tag Group</t>
+  </si>
+  <si>
+    <t>Foreign key</t>
+  </si>
+  <si>
+    <t>Fk_TagGrpMst_UserMst</t>
+  </si>
+  <si>
+    <t>Tag group created date and time</t>
+  </si>
+  <si>
+    <t>16 TagMst</t>
+  </si>
+  <si>
+    <t>Details of Tag Master</t>
+  </si>
+  <si>
+    <t>PK_TagMst</t>
+  </si>
+  <si>
+    <t>Individual identity of Tag group data</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Tag Data type</t>
+  </si>
+  <si>
+    <t>FK_TagMst_TagTypeMst</t>
+  </si>
+  <si>
+    <t>Width of Tagdata (tag value)</t>
+  </si>
+  <si>
+    <t>Is tag data mandatory "Y" or "N"</t>
+  </si>
+  <si>
+    <t>check key</t>
+  </si>
+  <si>
+    <t>Ck_TagMst_IsMandatory</t>
+  </si>
+  <si>
+    <t>FK_TagMst_ListData</t>
+  </si>
+  <si>
+    <t>Control Seq No (Tab order)</t>
+  </si>
+  <si>
+    <t>User id who created Tags</t>
+  </si>
+  <si>
+    <t>FK_TagMst_UserMst_UserId</t>
+  </si>
+  <si>
+    <t>Tags created date and time</t>
+  </si>
+  <si>
+    <t>17 ClassTagGrp</t>
+  </si>
+  <si>
+    <t>Details of Class Tag Group</t>
+  </si>
+  <si>
+    <t>Identity of Class</t>
+  </si>
+  <si>
+    <t>PK_ClassTagGrp</t>
+  </si>
+  <si>
+    <t>FK_ClassTagGrp_UserMst_UserId</t>
+  </si>
+  <si>
+    <t>18 OrgMst</t>
+  </si>
+  <si>
+    <t>Details of Organisation</t>
+  </si>
+  <si>
+    <t>Oid</t>
+  </si>
+  <si>
+    <t>Organisation Id</t>
+  </si>
+  <si>
+    <t>Pk_OrgMst</t>
+  </si>
+  <si>
+    <t>Onm</t>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+  </si>
+  <si>
+    <t>Oaddr1</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Oaddr2</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Plc</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Nvarchar(15)</t>
+  </si>
+  <si>
+    <t>PhnNo</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Varbinary(max)</t>
+  </si>
+  <si>
+    <t>Image for report (logo)</t>
+  </si>
+  <si>
+    <t>IsCommonClass</t>
+  </si>
+  <si>
+    <t>Does common class applied "Y" or "N" Incase "N" then department id required.</t>
+  </si>
+  <si>
+    <t>19 FileMst</t>
+  </si>
+  <si>
+    <t>Details of Files</t>
+  </si>
+  <si>
+    <t>Numeric(9)</t>
+  </si>
+  <si>
+    <t>Unique Identity of file</t>
+  </si>
+  <si>
+    <t>PK_FileMst</t>
+  </si>
+  <si>
+    <t>Unique identity against file Id</t>
+  </si>
+  <si>
+    <t>FK_FileMst_FolderMst_FolderId</t>
+  </si>
+  <si>
+    <t>Root id of file/folder</t>
+  </si>
+  <si>
+    <t>FileNm</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>FileContents</t>
+  </si>
+  <si>
+    <t>Varbinary(Max)</t>
+  </si>
+  <si>
+    <t>Actual file Data</t>
+  </si>
+  <si>
+    <t>FileExtn</t>
+  </si>
+  <si>
+    <t>Extension of file</t>
+  </si>
+  <si>
+    <t>"A" Active,"D" Deactive,"R" ReadOnly, "H" Hidden, "O" Checkout  Default "A"</t>
+  </si>
+  <si>
+    <t>CHk_FileMst_Atribt</t>
+  </si>
+  <si>
+    <t>FK_FileMst_UserMst_UserId</t>
+  </si>
+  <si>
+    <t>ModifiedBy</t>
+  </si>
+  <si>
+    <t>ModifiedDateTime</t>
+  </si>
+  <si>
+    <t>PageCnt</t>
+  </si>
+  <si>
+    <t>Page count of file</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>varchar(max)</t>
+  </si>
+  <si>
+    <t>Actual path of file</t>
+  </si>
+  <si>
+    <t>FileLocation</t>
+  </si>
+  <si>
+    <t>File location (Path of folder id) separated by "~" symbol</t>
+  </si>
+  <si>
+    <t>TagStatus</t>
+  </si>
+  <si>
+    <t>Is tagging completed ? "Y" or "N" default "N"</t>
+  </si>
+  <si>
+    <t>Default key</t>
+  </si>
+  <si>
+    <t>20 HisFileMst</t>
+  </si>
+  <si>
+    <t>Details of Files Transactions</t>
+  </si>
+  <si>
+    <t>HistId</t>
+  </si>
+  <si>
+    <t>Numeric(10)</t>
+  </si>
+  <si>
+    <t>Unique Identity of Record</t>
+  </si>
+  <si>
+    <t>PK_HisFileMst</t>
+  </si>
+  <si>
+    <t>FK_HisFileMst_FileMst_FileId</t>
+  </si>
+  <si>
+    <t>CHk_HisFileMstMst_Atribt</t>
+  </si>
+  <si>
+    <t>Remrk</t>
+  </si>
+  <si>
+    <t>Remark /Narration</t>
+  </si>
+  <si>
+    <t>21 HisFolderMst</t>
+  </si>
+  <si>
+    <t>Details of Folder  Transactions</t>
+  </si>
+  <si>
+    <t>PK_HisFolderMst</t>
+  </si>
+  <si>
+    <t>FK_HisFolderMst_FolderMst_FolderId</t>
+  </si>
+  <si>
+    <t>Chk_HisFolderMst_FolderMst_Attributes</t>
+  </si>
+  <si>
+    <t>FK_HisFolderMst_UserMst_UserId</t>
+  </si>
+  <si>
+    <t>22 FileTagsData</t>
+  </si>
+  <si>
+    <t>Details of File Tagging data</t>
+  </si>
+  <si>
+    <t>PK_FileTagsData</t>
+  </si>
+  <si>
+    <t>AutoIncrement</t>
+  </si>
+  <si>
+    <t>Fk_FileTagsData_FileMst_FileId</t>
+  </si>
+  <si>
+    <t>From FileMst table</t>
+  </si>
+  <si>
+    <t>FK_FileTagsData_TagMst_TagId</t>
+  </si>
+  <si>
+    <t>From TagMst Table</t>
+  </si>
+  <si>
+    <t>Actual tagged data</t>
+  </si>
+  <si>
+    <t>FK_FileTagsData_ListData_ListNo</t>
+  </si>
+  <si>
+    <t>From ListData</t>
+  </si>
+  <si>
+    <t>23 FileInOutTrans</t>
+  </si>
+  <si>
+    <t>Details of File inward/outward  Transactions</t>
   </si>
   <si>
     <t>Project Name :</t>
@@ -1360,12 +1882,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1929,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1430,6 +1960,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1444,6 +1981,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1452,25 +1997,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1497,9 +2027,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,9 +2057,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,21 +2073,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,14 +2081,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,6 +2109,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1607,6 +2155,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,110 +2296,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1828,6 +2358,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1843,11 +2391,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,194 +2464,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2227,12 +2766,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2587,8 +3139,8 @@
   <sheetPr/>
   <dimension ref="B4:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2604,10 +3156,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="66" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -2679,7 +3231,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
@@ -2825,10 +3377,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="67" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2979,16 +3531,16 @@
       <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="68" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3028,16 +3580,16 @@
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
@@ -3122,26 +3674,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="5.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="33.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="5.28571428571429" customWidth="1"/>
     <col min="6" max="6" width="13.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="7.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="21.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="11.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="12.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="12.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -3212,7 +3766,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="65" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="37">
@@ -3545,7 +4099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:4">
       <c r="A21" s="37" t="s">
         <v>120</v>
       </c>
@@ -3558,25 +4112,12 @@
       <c r="D21" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+      <c r="B22" s="37">
+        <v>2</v>
+      </c>
       <c r="C22" s="37" t="s">
         <v>122</v>
       </c>
@@ -3586,29 +4127,35 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
+      <c r="B23" s="37">
+        <v>3</v>
+      </c>
       <c r="C23" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="B24" s="37">
+        <v>4</v>
+      </c>
       <c r="C24" s="37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="B25" s="37">
+        <v>5</v>
+      </c>
       <c r="C25" s="37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>128</v>
@@ -3621,6 +4168,966 @@
         <v>129</v>
       </c>
       <c r="D26" s="37"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="37">
+        <v>1</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37">
+        <v>2</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37">
+        <v>3</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37">
+        <v>1</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>146</v>
+      </c>
+      <c r="O36" t="s">
+        <v>147</v>
+      </c>
+      <c r="P36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37">
+        <v>3</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37">
+        <v>4</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37">
+        <v>5</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37">
+        <v>6</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37">
+        <v>7</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37">
+        <v>8</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37">
+        <v>9</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="37"/>
+      <c r="B45" s="55">
+        <v>10</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="37"/>
+      <c r="B46" s="55">
+        <v>11</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37">
+        <v>12</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>163</v>
+      </c>
+      <c r="L49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>166</v>
+      </c>
+      <c r="L50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37">
+        <v>2</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37">
+        <v>3</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>166</v>
+      </c>
+      <c r="L52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37">
+        <v>4</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12">
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="37">
+        <v>1</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" t="s">
+        <v>180</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37">
+        <v>2</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>181</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37">
+        <v>3</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="42">
+        <v>42825</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37">
+        <v>4</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>25000</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37">
+        <v>5</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>182</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37">
+        <v>6</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>183</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37">
+        <v>7</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37">
+        <v>8</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>184</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37">
+        <v>9</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37">
+        <v>10</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3632,10 +5139,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3646,7 +5153,7 @@
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="35.4285714285714" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="31.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="29.8571428571429" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="13.5714285714286" customWidth="1"/>
@@ -3655,19 +5162,19 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="43" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="45"/>
       <c r="F1" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="H1" s="47"/>
       <c r="I1" s="22"/>
@@ -3677,28 +5184,28 @@
         <v>78</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3706,22 +5213,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="37"/>
@@ -3731,19 +5238,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="36"/>
@@ -3754,13 +5261,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -3773,13 +5280,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -3792,43 +5299,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="I7" s="37"/>
     </row>
     <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="43" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="22"/>
@@ -3838,28 +5345,28 @@
         <v>78</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3867,22 +5374,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37"/>
@@ -3892,19 +5399,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="36"/>
@@ -3915,13 +5422,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -3934,13 +5441,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -3953,43 +5460,43 @@
         <v>5</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="I16" s="37"/>
     </row>
     <row r="19" ht="15.75" spans="1:9">
       <c r="A19" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="43" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="45"/>
       <c r="F19" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="22"/>
@@ -3999,28 +5506,28 @@
         <v>78</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4028,25 +5535,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="I21" s="37"/>
     </row>
@@ -4055,16 +5562,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="21"/>
@@ -4076,16 +5583,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -4097,16 +5604,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4115,19 +5622,19 @@
     </row>
     <row r="27" ht="15.75" spans="1:9">
       <c r="A27" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="43" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="22"/>
@@ -4137,28 +5644,28 @@
         <v>78</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4166,20 +5673,20 @@
         <v>1</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="H29" s="36"/>
       <c r="I29" s="37"/>
@@ -4189,13 +5696,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="37"/>
@@ -4205,19 +5712,19 @@
     </row>
     <row r="33" ht="15.75" spans="1:9">
       <c r="A33" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="43" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="22"/>
@@ -4227,28 +5734,28 @@
         <v>78</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4256,19 +5763,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="36"/>
@@ -4279,19 +5786,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="36"/>
@@ -4302,16 +5809,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -4323,16 +5830,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -4344,16 +5851,16 @@
         <v>6</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -4362,19 +5869,19 @@
     </row>
     <row r="43" ht="15.75" spans="1:9">
       <c r="A43" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="43" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="H43" s="47"/>
       <c r="I43" s="22"/>
@@ -4384,28 +5891,28 @@
         <v>78</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4413,22 +5920,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="37"/>
@@ -4438,22 +5945,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="37"/>
@@ -4463,16 +5970,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="37"/>
@@ -4484,16 +5991,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -4505,16 +6012,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -4526,22 +6033,22 @@
         <v>6</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="37"/>
@@ -4551,22 +6058,22 @@
         <v>7</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="37"/>
@@ -4576,22 +6083,22 @@
         <v>8</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="H52" s="36"/>
       <c r="I52" s="37"/>
@@ -4601,16 +6108,16 @@
         <v>9</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -4622,16 +6129,16 @@
         <v>10</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="37"/>
@@ -4643,16 +6150,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -4664,16 +6171,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -4685,13 +6192,13 @@
         <v>13</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E57" s="36"/>
       <c r="F57" s="37"/>
@@ -4704,13 +6211,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E58" s="36"/>
       <c r="F58" s="37"/>
@@ -4723,25 +6230,25 @@
         <v>15</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="I59" s="37"/>
     </row>
@@ -4750,20 +6257,20 @@
         <v>16</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E60" s="36"/>
       <c r="F60" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G60" s="55" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="37"/>
@@ -4773,13 +6280,13 @@
         <v>17</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E61" s="36"/>
       <c r="F61" s="37"/>
@@ -4792,16 +6299,16 @@
         <v>18</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -4810,19 +6317,19 @@
     </row>
     <row r="65" ht="15.75" spans="1:9">
       <c r="A65" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="43" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="D65" s="44"/>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="H65" s="47"/>
       <c r="I65" s="22"/>
@@ -4832,28 +6339,28 @@
         <v>78</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F66" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H66" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I66" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4861,19 +6368,19 @@
         <v>1</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G67" s="46"/>
       <c r="H67" s="17"/>
@@ -4884,16 +6391,16 @@
         <v>2</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="46"/>
@@ -4905,22 +6412,22 @@
         <v>3</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="37"/>
@@ -4930,16 +6437,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="37"/>
@@ -4951,16 +6458,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -4972,22 +6479,22 @@
         <v>6</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="F72" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="H72" s="36"/>
       <c r="I72" s="37"/>
@@ -5016,19 +6523,19 @@
     </row>
     <row r="75" ht="15.75" spans="1:9">
       <c r="A75" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="43" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="D75" s="44"/>
       <c r="E75" s="45"/>
       <c r="F75" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H75" s="47"/>
       <c r="I75" s="22"/>
@@ -5038,28 +6545,28 @@
         <v>78</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G76" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5067,25 +6574,25 @@
         <v>1</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="I77" s="37"/>
     </row>
@@ -5094,21 +6601,21 @@
         <v>2</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="F78" s="52"/>
       <c r="G78" s="21"/>
       <c r="H78" s="36" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="I78" s="37"/>
     </row>
@@ -5117,25 +6624,25 @@
         <v>3</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="F79" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G79" s="55" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I79" s="37"/>
     </row>
@@ -5144,25 +6651,25 @@
         <v>4</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="F80" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G80" s="55" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I80" s="37"/>
     </row>
@@ -5171,25 +6678,25 @@
         <v>5</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="F81" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G81" s="55" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I81" s="37"/>
     </row>
@@ -5198,25 +6705,25 @@
         <v>6</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="F82" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G82" s="55" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I82" s="37"/>
     </row>
@@ -5233,19 +6740,19 @@
     </row>
     <row r="85" ht="15.75" spans="1:9">
       <c r="A85" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="43" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45"/>
       <c r="F85" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="H85" s="47"/>
       <c r="I85" s="22"/>
@@ -5255,28 +6762,28 @@
         <v>78</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D86" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G86" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I86" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5287,23 +6794,23 @@
         <v>78</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E87" s="48" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G87" s="46" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="H87" s="48"/>
       <c r="I87" s="46" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5311,22 +6818,22 @@
         <v>2</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="H88" s="36"/>
       <c r="I88" s="37"/>
@@ -5336,25 +6843,25 @@
         <v>3</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G89" s="37" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="I89" s="37"/>
     </row>
@@ -5363,16 +6870,16 @@
         <v>4</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -5381,19 +6888,19 @@
     </row>
     <row r="93" ht="15.75" spans="1:9">
       <c r="A93" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="43" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="D93" s="44"/>
       <c r="E93" s="45"/>
       <c r="F93" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="H93" s="47"/>
       <c r="I93" s="22"/>
@@ -5403,28 +6910,28 @@
         <v>78</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F94" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I94" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5435,23 +6942,23 @@
         <v>83</v>
       </c>
       <c r="C95" s="46" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G95" s="46" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="H95" s="48"/>
       <c r="I95" s="46" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5459,22 +6966,22 @@
         <v>2</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="H96" s="36"/>
       <c r="I96" s="37"/>
@@ -5484,22 +6991,22 @@
         <v>3</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G97" s="37" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="H97" s="36"/>
       <c r="I97" s="37"/>
@@ -5509,25 +7016,25 @@
         <v>4</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G98" s="37" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H98" s="36" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="I98" s="37"/>
     </row>
@@ -5536,19 +7043,19 @@
         <v>5</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D99" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="F99" s="55" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G99" s="37"/>
       <c r="H99" s="36"/>
@@ -5559,19 +7066,19 @@
         <v>6</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="F100" s="55" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G100" s="37"/>
       <c r="H100" s="36"/>
@@ -5585,19 +7092,19 @@
         <v>104</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="F101" s="55" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="H101" s="36"/>
       <c r="I101" s="37"/>
@@ -5607,16 +7114,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -5628,25 +7135,25 @@
         <v>9</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="F103" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G103" s="37" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="I103" s="37"/>
     </row>
@@ -5655,19 +7162,19 @@
         <v>10</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="F104" s="37" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="36"/>
@@ -5678,19 +7185,19 @@
         <v>11</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="F105" s="37" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="36"/>
@@ -5701,25 +7208,25 @@
         <v>12</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="F106" s="37" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G106" s="37" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="I106" s="37"/>
     </row>
@@ -5728,22 +7235,22 @@
         <v>13</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="F107" s="55" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G107" s="55" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="H107" s="36"/>
       <c r="I107" s="37"/>
@@ -5753,16 +7260,16 @@
         <v>14</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -5771,19 +7278,19 @@
     </row>
     <row r="111" ht="15.75" spans="1:9">
       <c r="A111" s="21" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="43" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="D111" s="44"/>
       <c r="E111" s="45"/>
       <c r="F111" s="46" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="H111" s="47"/>
       <c r="I111" s="22"/>
@@ -5793,28 +7300,28 @@
         <v>78</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C112" s="46" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F112" s="46" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="G112" s="46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I112" s="46" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5822,21 +7329,23 @@
         <v>1</v>
       </c>
       <c r="B113" s="49" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="F113" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="G113" s="37"/>
+        <v>389</v>
+      </c>
+      <c r="G113" s="37" t="s">
+        <v>390</v>
+      </c>
       <c r="H113" s="36"/>
       <c r="I113" s="37"/>
     </row>
@@ -5845,37 +7354,37 @@
         <v>2</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E114" s="36" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
       <c r="H114" s="36"/>
       <c r="I114" s="37"/>
     </row>
-    <row r="115" ht="30" spans="1:9">
+    <row r="115" ht="42.75" customHeight="1" spans="1:9">
       <c r="A115" s="37">
         <v>3</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -5886,18 +7395,24 @@
       <c r="A116" s="37">
         <v>4</v>
       </c>
-      <c r="B116" s="37" t="s">
-        <v>346</v>
+      <c r="B116" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" s="36"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
+        <v>208</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G116" s="37" t="s">
+        <v>393</v>
+      </c>
       <c r="H116" s="36"/>
       <c r="I116" s="37"/>
     </row>
@@ -5906,26 +7421,20 @@
         <v>5</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E117" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="F117" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G117" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="H117" s="36" t="s">
-        <v>311</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="37"/>
     </row>
     <row r="118" spans="1:9">
@@ -5933,22 +7442,26 @@
         <v>6</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C118" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>154</v>
+        <v>357</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>198</v>
       </c>
       <c r="E118" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="F118" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G118" s="37"/>
-      <c r="H118" s="36"/>
+        <v>358</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="H118" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="I118" s="37"/>
     </row>
     <row r="119" spans="1:9">
@@ -5956,115 +7469,116 @@
         <v>7</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E119" s="36" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="F119" s="55" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G119" s="37"/>
       <c r="H119" s="36"/>
       <c r="I119" s="37"/>
     </row>
-    <row r="120" ht="30" spans="1:9">
+    <row r="120" spans="1:9">
       <c r="A120" s="37">
         <v>8</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E120" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="F120" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="H120" s="36" t="s">
-        <v>325</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F120" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="G120" s="37"/>
+      <c r="H120" s="36"/>
       <c r="I120" s="37"/>
     </row>
-    <row r="121" ht="37.5" customHeight="1" spans="1:9">
+    <row r="121" ht="30" spans="1:9">
       <c r="A121" s="37">
         <v>9</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E121" s="36" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="F121" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="G121" s="37"/>
-      <c r="H121" s="36"/>
+        <v>213</v>
+      </c>
+      <c r="G121" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="H121" s="36" t="s">
+        <v>374</v>
+      </c>
       <c r="I121" s="37"/>
     </row>
-    <row r="122" ht="30" spans="1:9">
+    <row r="122" ht="37.5" customHeight="1" spans="1:9">
       <c r="A122" s="37">
         <v>10</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C122" s="55" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E122" s="36" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F122" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="G122" s="37" t="s">
-        <v>350</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G122" s="37"/>
       <c r="H122" s="36"/>
       <c r="I122" s="37"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" ht="30" spans="1:9">
       <c r="A123" s="37">
         <v>11</v>
       </c>
-      <c r="B123" s="54" t="s">
-        <v>239</v>
+      <c r="B123" s="37" t="s">
+        <v>377</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="D123" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E123" s="36"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="F123" s="37" t="s">
+        <v>363</v>
+      </c>
       <c r="H123" s="36"/>
       <c r="I123" s="37"/>
     </row>
@@ -6072,440 +7586,2665 @@
       <c r="A124" s="37">
         <v>12</v>
       </c>
-      <c r="B124" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>156</v>
+      <c r="B124" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="55" t="s">
+        <v>387</v>
       </c>
       <c r="D124" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" s="36"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
+        <v>198</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G124" s="37" t="s">
+        <v>400</v>
+      </c>
       <c r="H124" s="36"/>
       <c r="I124" s="37"/>
     </row>
-    <row r="127" ht="15.75" spans="1:9">
-      <c r="A127" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="D127" s="44"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G127" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="H127" s="47"/>
-      <c r="I127" s="22"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="46" t="s">
+    <row r="125" spans="1:9">
+      <c r="A125" s="37">
+        <v>13</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="37"/>
+    </row>
+    <row r="128" ht="15.75" spans="1:9">
+      <c r="A128" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="21"/>
+      <c r="C128" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D128" s="44"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H128" s="47"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F128" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I128" s="46" t="s">
+      <c r="B129" s="46" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="37">
-        <v>1</v>
-      </c>
-      <c r="B129" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E129" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="F129" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="G129" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="H129" s="36"/>
-      <c r="I129" s="37"/>
+      <c r="C129" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G129" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I129" s="46" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="37">
-        <v>2</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>14</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D130" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E130" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
+        <v>404</v>
+      </c>
+      <c r="F130" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130" s="37" t="s">
+        <v>405</v>
+      </c>
       <c r="H130" s="36"/>
       <c r="I130" s="37"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="37">
-        <v>3</v>
-      </c>
-      <c r="B131" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="55" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E131" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37" t="s">
-        <v>358</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="G131" s="37"/>
       <c r="H131" s="36"/>
       <c r="I131" s="37"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="37">
-        <v>4</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="B132" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>387</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
+        <v>408</v>
+      </c>
+      <c r="F132" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G132" s="37" t="s">
+        <v>409</v>
+      </c>
       <c r="H132" s="36"/>
       <c r="I132" s="37"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" s="55" t="s">
         <v>157</v>
       </c>
+      <c r="C133" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="D133" s="37" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="36"/>
       <c r="I133" s="37"/>
     </row>
-    <row r="136" ht="15.75" spans="1:9">
-      <c r="A136" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="D136" s="44"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="H136" s="47"/>
-      <c r="I136" s="22"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="46" t="s">
+    <row r="134" spans="1:9">
+      <c r="A134" s="37">
+        <v>5</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="37"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="59"/>
+    </row>
+    <row r="138" ht="15.75" spans="1:9">
+      <c r="A138" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="21"/>
+      <c r="C138" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" s="44"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="H138" s="47"/>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B137" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C137" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E137" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F137" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H137" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I137" s="46" t="s">
+      <c r="B139" s="46" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="37">
-        <v>1</v>
-      </c>
-      <c r="B138" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D138" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E138" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="F138" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="G138" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="H138" s="36"/>
-      <c r="I138" s="37"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="37">
-        <v>2</v>
-      </c>
-      <c r="B139" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="C139" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D139" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E139" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="F139" s="59"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="37"/>
+      <c r="C139" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G139" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I139" s="46" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="37">
-        <v>3</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>14</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E140" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
+        <v>404</v>
+      </c>
+      <c r="F140" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>415</v>
+      </c>
       <c r="H140" s="36"/>
       <c r="I140" s="37"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="37">
-        <v>4</v>
-      </c>
-      <c r="B141" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C141" s="55" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="B141" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>197</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37" t="s">
-        <v>366</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F141" s="60"/>
+      <c r="G141" s="34"/>
       <c r="H141" s="36"/>
       <c r="I141" s="37"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" s="37" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="D142" s="37" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E142" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="F142" s="37"/>
+        <v>406</v>
+      </c>
       <c r="G142" s="37"/>
       <c r="H142" s="36"/>
       <c r="I142" s="37"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="37">
-        <v>6</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="B143" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="C143" s="55" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="D143" s="37" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
+        <v>408</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="37" t="s">
+        <v>417</v>
+      </c>
       <c r="H143" s="36"/>
       <c r="I143" s="37"/>
     </row>
-    <row r="146" ht="15.75" spans="1:9">
-      <c r="A146" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="D146" s="44"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G146" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="H146" s="47"/>
-      <c r="I146" s="22"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="46" t="s">
+    <row r="144" spans="1:9">
+      <c r="A144" s="37">
+        <v>5</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="37"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="37">
+        <v>6</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C145" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="37"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="59"/>
+    </row>
+    <row r="149" ht="15.75" spans="1:9">
+      <c r="A149" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="21"/>
+      <c r="C149" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="D149" s="44"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H149" s="47"/>
+      <c r="I149" s="22"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B150" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G150" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H150" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I150" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="37">
+        <v>1</v>
+      </c>
+      <c r="B151" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="F151" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G151" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="H151" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="I151" s="37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="37">
+        <v>2</v>
+      </c>
+      <c r="B152" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E147" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F147" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G147" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H147" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I147" s="46" t="s">
+      <c r="C152" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G152" s="37"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="37"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="37">
+        <v>3</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="37"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="37">
+        <v>4</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="37"/>
+    </row>
+    <row r="156" ht="15.75" spans="1:9">
+      <c r="A156" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="21"/>
+      <c r="C156" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="44"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="H156" s="47"/>
+      <c r="I156" s="22"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B157" s="46" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="37">
+      <c r="C157" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F157" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G157" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I157" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="37">
+      <c r="B158" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G158" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H158" s="36"/>
+      <c r="I158" s="37"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="37">
+      <c r="B159" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E159" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="G159" s="37"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="37"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="37">
+      <c r="B160" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="H160" s="36"/>
+      <c r="I160" s="37"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="37">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="37">
+      <c r="B161" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="37"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="37">
+      <c r="B162" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D162" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
+    </row>
+    <row r="165" ht="15.75" spans="1:9">
+      <c r="A165" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="21"/>
+      <c r="C165" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D165" s="44"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="H165" s="47"/>
+      <c r="I165" s="22"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B166" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F166" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G166" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H166" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I166" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="37">
+        <v>1</v>
+      </c>
+      <c r="B167" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E167" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F167" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G167" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="37">
+        <v>2</v>
+      </c>
+      <c r="B168" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="F168" s="61"/>
+      <c r="G168" s="62"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="37"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="37">
+        <v>3</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="F169" s="61"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="37"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="37">
+        <v>4</v>
+      </c>
+      <c r="B170" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E170" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F170" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G170" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="H170" s="36"/>
+      <c r="I170" s="37"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="37">
+        <v>5</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D171" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E171" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="37"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="37">
         <v>6</v>
       </c>
+      <c r="B172" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E172" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="F172" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="G172" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="H172" s="36"/>
+      <c r="I172" s="37"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="37">
+        <v>7</v>
+      </c>
+      <c r="B173" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E173" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F173" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G173" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="H173" s="36"/>
+      <c r="I173" s="37"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="37">
+        <v>8</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E174" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F174" s="62"/>
+      <c r="G174" s="62"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="37"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="37">
+        <v>9</v>
+      </c>
+      <c r="B175" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E175" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="F175" s="62"/>
+      <c r="G175" s="62"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="37"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="55">
+        <v>10</v>
+      </c>
+      <c r="B176" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E176" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H176" s="36"/>
+      <c r="I176" s="37"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="55">
+        <v>11</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E177" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="37"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="37">
+        <v>12</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="37"/>
+    </row>
+    <row r="181" ht="15.75" spans="1:9">
+      <c r="A181" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="21"/>
+      <c r="C181" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D181" s="44"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G181" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="H181" s="47"/>
+      <c r="I181" s="22"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E182" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G182" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I182" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="37">
+        <v>1</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="F183" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="H183" s="36"/>
+      <c r="I183" s="37"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="37">
+        <v>2</v>
+      </c>
+      <c r="B184" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D184" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E184" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F184" s="61"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="37"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="37">
+        <v>3</v>
+      </c>
+      <c r="B185" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C185" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D185" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E185" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F185" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G185" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="H185" s="36"/>
+      <c r="I185" s="37"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="37">
+        <v>4</v>
+      </c>
+      <c r="B186" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D186" s="37"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="37"/>
+    </row>
+    <row r="189" ht="15.75" spans="1:9">
+      <c r="A189" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" s="21"/>
+      <c r="C189" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D189" s="44"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="H189" s="47"/>
+      <c r="I189" s="22"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C190" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D190" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E190" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F190" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G190" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I190" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="37">
+        <v>1</v>
+      </c>
+      <c r="B191" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E191" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F191" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G191" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="H191" s="36"/>
+      <c r="I191" s="37"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="37">
+        <v>2</v>
+      </c>
+      <c r="B192" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D192" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="37"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="37">
+        <v>3</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D193" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E193" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="37"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="37">
+        <v>4</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D194" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="37"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="37">
+        <v>5</v>
+      </c>
+      <c r="B195" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E195" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="37"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="37">
+        <v>6</v>
+      </c>
+      <c r="B196" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="37"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="37">
+        <v>7</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="37"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="37">
+        <v>8</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="37"/>
+    </row>
+    <row r="199" ht="45" spans="1:9">
+      <c r="A199" s="37">
+        <v>9</v>
+      </c>
+      <c r="B199" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F199" s="37"/>
+      <c r="G199" s="37"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="37"/>
+    </row>
+    <row r="202" ht="15.75" spans="1:9">
+      <c r="A202" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B202" s="21"/>
+      <c r="C202" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D202" s="44"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="H202" s="47"/>
+      <c r="I202" s="22"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B203" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D203" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E203" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F203" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G203" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I203" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="37">
+        <v>1</v>
+      </c>
+      <c r="B204" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D204" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E204" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F204" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G204" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H204" s="36"/>
+      <c r="I204" s="37"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="37">
+        <v>2</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E205" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="F205" s="61"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="37"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="37">
+        <v>2</v>
+      </c>
+      <c r="B206" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E206" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G206" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="H206" s="36"/>
+      <c r="I206" s="37"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="37">
+        <v>3</v>
+      </c>
+      <c r="B207" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E207" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="37"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="37">
+        <v>4</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E208" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="37"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="37">
+        <v>5</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E209" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="F209" s="37"/>
+      <c r="G209" s="37"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="37"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="37">
+        <v>6</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E210" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="F210" s="37"/>
+      <c r="G210" s="37"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="37"/>
+    </row>
+    <row r="211" ht="30" spans="1:9">
+      <c r="A211" s="37">
+        <v>7</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C211" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E211" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="F211" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="G211" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="H211" s="36"/>
+      <c r="I211" s="37"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="37">
+        <v>8</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C212" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E212" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F212" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G212" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H212" s="36"/>
+      <c r="I212" s="37"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="37">
+        <v>9</v>
+      </c>
+      <c r="B213" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E213" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F213" s="37"/>
+      <c r="G213" s="37"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="37"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="37">
+        <v>10</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C214" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E214" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F214" s="37"/>
+      <c r="G214" s="37"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="37"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="37">
+        <v>11</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E215" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F215" s="37"/>
+      <c r="G215" s="37"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="37"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="37">
+        <v>12</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D216" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E216" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="F216" s="37"/>
+      <c r="G216" s="37"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="37"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="37">
+        <v>13</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E217" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="F217" s="37"/>
+      <c r="G217" s="37"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="37"/>
+    </row>
+    <row r="218" ht="30" spans="1:9">
+      <c r="A218" s="37">
+        <v>14</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D218" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E218" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="F218" s="37"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="37"/>
+    </row>
+    <row r="219" ht="30" spans="1:9">
+      <c r="A219" s="37">
+        <v>15</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C219" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E219" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="F219" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="G219" s="37"/>
+      <c r="H219" s="36"/>
+      <c r="I219" s="37"/>
+    </row>
+    <row r="222" ht="15.75" spans="1:9">
+      <c r="A222" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" s="21"/>
+      <c r="C222" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D222" s="44"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="H222" s="47"/>
+      <c r="I222" s="22"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C223" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E223" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F223" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G223" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I223" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="37">
+        <v>1</v>
+      </c>
+      <c r="B224" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="C224" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D224" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E224" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="F224" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G224" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="H224" s="36"/>
+      <c r="I224" s="37"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="37">
+        <v>2</v>
+      </c>
+      <c r="B225" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C225" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D225" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E225" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F225" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G225" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="H225" s="36"/>
+      <c r="I225" s="37"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="37">
+        <v>3</v>
+      </c>
+      <c r="B226" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D226" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E226" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="F226" s="62"/>
+      <c r="G226" s="62"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="37"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="37">
+        <v>4</v>
+      </c>
+      <c r="B227" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="C227" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D227" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E227" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="F227" s="37"/>
+      <c r="G227" s="37"/>
+      <c r="H227" s="36"/>
+      <c r="I227" s="37"/>
+    </row>
+    <row r="228" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A228" s="37">
+        <v>5</v>
+      </c>
+      <c r="B228" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C228" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D228" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E228" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="F228" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="G228" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="H228" s="36"/>
+      <c r="I228" s="37"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="37">
+        <v>6</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C229" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D229" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E229" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="F229" s="37"/>
+      <c r="G229" s="37"/>
+      <c r="H229" s="36"/>
+      <c r="I229" s="37"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="37">
+        <v>7</v>
+      </c>
+      <c r="B230" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C230" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D230" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E230" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G230" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H230" s="36"/>
+      <c r="I230" s="37"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="37">
+        <v>8</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D231" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E231" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" s="37"/>
+      <c r="G231" s="37"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="37"/>
+    </row>
+    <row r="234" ht="15.75" spans="1:9">
+      <c r="A234" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B234" s="21"/>
+      <c r="C234" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="D234" s="44"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G234" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="H234" s="47"/>
+      <c r="I234" s="22"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C235" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F235" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G235" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I235" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="37">
+        <v>1</v>
+      </c>
+      <c r="B236" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D236" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E236" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="F236" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G236" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="H236" s="36"/>
+      <c r="I236" s="37"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="37">
+        <v>2</v>
+      </c>
+      <c r="B237" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D237" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E237" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="F237" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G237" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="H237" s="36"/>
+      <c r="I237" s="37"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="37">
+        <v>3</v>
+      </c>
+      <c r="B238" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C238" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E238" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="F238" s="37"/>
+      <c r="G238" s="37"/>
+      <c r="H238" s="36"/>
+      <c r="I238" s="37"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="37">
+        <v>4</v>
+      </c>
+      <c r="B239" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C239" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D239" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E239" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F239" s="37"/>
+      <c r="G239" s="37"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="37"/>
+    </row>
+    <row r="240" ht="30" spans="1:9">
+      <c r="A240" s="37">
+        <v>5</v>
+      </c>
+      <c r="B240" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C240" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D240" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E240" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="F240" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G240" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="H240" s="36"/>
+      <c r="I240" s="37"/>
+    </row>
+    <row r="241" ht="30" spans="1:9">
+      <c r="A241" s="37">
+        <v>6</v>
+      </c>
+      <c r="B241" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C241" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D241" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E241" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="F241" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="G241" s="37"/>
+      <c r="H241" s="36"/>
+      <c r="I241" s="37"/>
+    </row>
+    <row r="242" ht="30" spans="1:9">
+      <c r="A242" s="37">
+        <v>7</v>
+      </c>
+      <c r="B242" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="C242" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D242" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E242" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="F242" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="G242" s="37"/>
+      <c r="H242" s="36"/>
+      <c r="I242" s="37"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="37">
+        <v>8</v>
+      </c>
+      <c r="B243" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C243" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D243" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E243" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F243" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G243" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="H243" s="36"/>
+      <c r="I243" s="37"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="37">
+        <v>9</v>
+      </c>
+      <c r="B244" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D244" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E244" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F244" s="37"/>
+      <c r="G244" s="37"/>
+      <c r="H244" s="36"/>
+      <c r="I244" s="37"/>
+    </row>
+    <row r="247" ht="15.75" spans="1:9">
+      <c r="A247" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B247" s="21"/>
+      <c r="C247" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="D247" s="44"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="H247" s="47"/>
+      <c r="I247" s="22"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B248" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D248" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E248" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F248" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G248" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H248" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I248" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="37">
+        <v>1</v>
+      </c>
+      <c r="B249" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C249" s="37"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="36"/>
+      <c r="F249" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G249" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="H249" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="I249" s="37"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="37">
+        <v>2</v>
+      </c>
+      <c r="B250" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D250" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E250" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F250" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G250" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="H250" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="I250" s="37"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="37">
+        <v>3</v>
+      </c>
+      <c r="B251" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D251" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E251" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="F251" s="62"/>
+      <c r="G251" s="62"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="37"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="37">
+        <v>4</v>
+      </c>
+      <c r="B252" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C252" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D252" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E252" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F252" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G252" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="H252" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="I252" s="37"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="37">
+        <v>5</v>
+      </c>
+      <c r="B253" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C253" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D253" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E253" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="F253" s="62"/>
+      <c r="G253" s="62"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="37"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="37">
+        <v>6</v>
+      </c>
+      <c r="B254" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C254" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D254" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E254" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="F254" s="37"/>
+      <c r="G254" s="37"/>
+      <c r="H254" s="36"/>
+      <c r="I254" s="37"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="37">
+        <v>7</v>
+      </c>
+      <c r="B255" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D255" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E255" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F255" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G255" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="H255" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="I255" s="37"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="37">
+        <v>8</v>
+      </c>
+      <c r="B256" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C256" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D256" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E256" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F256" s="62"/>
+      <c r="G256" s="62"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="37"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="37">
+        <v>9</v>
+      </c>
+      <c r="B257" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C257" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D257" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E257" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F257" s="37"/>
+      <c r="G257" s="37"/>
+      <c r="H257" s="36"/>
+      <c r="I257" s="37"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="37">
+        <v>10</v>
+      </c>
+      <c r="B258" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C258" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D258" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E258" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F258" s="37"/>
+      <c r="G258" s="37"/>
+      <c r="H258" s="36"/>
+      <c r="I258" s="37"/>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" s="64"/>
+      <c r="C259" s="57"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="39"/>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="64"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="39"/>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="64"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="39"/>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="64"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="39"/>
+    </row>
+    <row r="264" ht="15.75" spans="1:9">
+      <c r="A264" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B264" s="21"/>
+      <c r="C264" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D264" s="44"/>
+      <c r="E264" s="45"/>
+      <c r="F264" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G264" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="H264" s="47"/>
+      <c r="I264" s="22"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B265" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C265" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D265" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E265" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F265" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G265" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H265" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I265" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="97">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
@@ -6539,22 +10278,70 @@
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="B135:I135"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="B146:I146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="G222:I222"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:E234"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="G247:I247"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C264:E264"/>
+    <mergeCell ref="G264:I264"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="F252:F253"/>
+    <mergeCell ref="F255:F256"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="G250:G251"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="G255:G256"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="H252:H253"/>
+    <mergeCell ref="H255:H256"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -6565,239 +10352,77 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
     <col min="2" max="3" width="9.14285714285714" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="42">
-        <v>43283</v>
-      </c>
-      <c r="B2" s="41">
-        <v>11.32</v>
-      </c>
-      <c r="C2" s="41">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="42">
-        <v>43283</v>
-      </c>
-      <c r="B3" s="41">
-        <v>12.16</v>
-      </c>
-      <c r="C3" s="41">
-        <v>12.19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42">
-        <v>43283</v>
-      </c>
-      <c r="B4" s="41">
-        <v>2.17</v>
-      </c>
-      <c r="C4" s="41">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42">
-        <v>43283</v>
-      </c>
-      <c r="B5" s="41">
-        <v>3.55</v>
-      </c>
-      <c r="C5" s="41">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="42">
-        <v>43283</v>
-      </c>
-      <c r="B6" s="41">
-        <v>4.41</v>
-      </c>
-      <c r="C6" s="41">
-        <v>4.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B8" s="41">
-        <v>10.13</v>
-      </c>
-      <c r="C8" s="41">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B9" s="41">
-        <v>11.11</v>
-      </c>
-      <c r="C9" s="41">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B10" s="41">
-        <v>11.22</v>
-      </c>
-      <c r="C10" s="41">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B11" s="41">
-        <v>12.25</v>
-      </c>
-      <c r="C11" s="41">
-        <v>12.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B12" s="41">
-        <v>1.57</v>
-      </c>
-      <c r="C12" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B13" s="41">
-        <v>3.18</v>
-      </c>
-      <c r="C13" s="41">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B14" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="C14" s="41">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B15" s="41">
-        <v>4.55</v>
-      </c>
-      <c r="C15" s="41">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B16" s="41">
-        <v>5.17</v>
-      </c>
-      <c r="C16" s="41">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="42">
-        <v>43294</v>
-      </c>
-      <c r="B17" s="41">
-        <v>6.04</v>
-      </c>
-      <c r="C17" s="41">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="42">
-        <v>43297</v>
-      </c>
-      <c r="B19" s="41">
-        <v>10.24</v>
-      </c>
-      <c r="C19" s="41">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="42">
-        <v>43297</v>
-      </c>
-      <c r="B20" s="41">
-        <v>11.35</v>
-      </c>
-      <c r="C20" s="41">
-        <v>11.38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="42">
-        <v>43297</v>
-      </c>
-      <c r="B21" s="41">
-        <v>12.08</v>
-      </c>
-      <c r="C21" s="41">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="42">
-        <v>43297</v>
-      </c>
-      <c r="B22" s="41">
-        <v>12.34</v>
-      </c>
-      <c r="C22" s="41">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="42">
-        <v>43297</v>
-      </c>
-      <c r="B23" s="41">
-        <v>12.59</v>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2" s="42"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="42"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="42"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="42"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="42"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="42"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="42"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="42"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6811,7 +10436,7 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -6831,10 +10456,10 @@
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="8" t="s">
-        <v>369</v>
+        <v>543</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="7"/>
@@ -6842,10 +10467,10 @@
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -6859,30 +10484,30 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
       <c r="A4" s="12" t="s">
-        <v>373</v>
+        <v>547</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>374</v>
+        <v>548</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>375</v>
+        <v>549</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>376</v>
+        <v>550</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>377</v>
+        <v>551</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>379</v>
+        <v>553</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:10">
@@ -6892,16 +10517,16 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="14" t="s">
-        <v>380</v>
+        <v>554</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>381</v>
+        <v>555</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>380</v>
+        <v>554</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>381</v>
+        <v>555</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -6910,13 +10535,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>382</v>
+        <v>556</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>383</v>
+        <v>557</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="17"/>
@@ -6924,7 +10549,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="60" spans="1:10">
@@ -6932,13 +10557,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="19"/>
@@ -6946,7 +10571,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="30" spans="1:10">
@@ -6954,13 +10579,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>389</v>
+        <v>563</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>390</v>
+        <v>564</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="19"/>
@@ -6968,7 +10593,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="45" spans="1:10">
@@ -6976,13 +10601,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>391</v>
+        <v>565</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -6990,7 +10615,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="45" spans="1:10">
@@ -6998,13 +10623,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>393</v>
+        <v>567</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>394</v>
+        <v>568</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="23"/>
@@ -7012,7 +10637,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="30" spans="1:10">
@@ -7020,13 +10645,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>395</v>
+        <v>569</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>396</v>
+        <v>570</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -7034,7 +10659,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="45" spans="1:10">
@@ -7042,13 +10667,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>397</v>
+        <v>571</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>398</v>
+        <v>572</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
@@ -7056,7 +10681,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="17" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:10">
@@ -7064,13 +10689,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E13" s="22">
         <v>9</v>
@@ -7090,13 +10715,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E14" s="21">
         <v>9</v>
@@ -7116,13 +10741,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>404</v>
+        <v>578</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E15" s="21">
         <v>27</v>
@@ -7143,10 +10768,10 @@
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="27" t="s">
-        <v>405</v>
+        <v>579</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E16" s="21">
         <v>32</v>
@@ -7166,13 +10791,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>406</v>
+        <v>580</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>407</v>
+        <v>581</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E17" s="22">
         <v>32</v>
@@ -7193,10 +10818,10 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="16" t="s">
-        <v>408</v>
+        <v>582</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E18" s="22">
         <v>18</v>
@@ -7217,10 +10842,10 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="16" t="s">
-        <v>409</v>
+        <v>583</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E19" s="22">
         <v>16</v>
@@ -7241,10 +10866,10 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="16" t="s">
-        <v>410</v>
+        <v>584</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E20" s="22">
         <v>27</v>
@@ -7265,10 +10890,10 @@
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="16" t="s">
-        <v>411</v>
+        <v>585</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E21" s="22">
         <v>27</v>
@@ -7288,13 +10913,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>412</v>
+        <v>586</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>413</v>
+        <v>587</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E22" s="21">
         <v>32</v>
@@ -7315,10 +10940,10 @@
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="36" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E23" s="21">
         <v>27</v>
@@ -7338,13 +10963,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>415</v>
+        <v>589</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>416</v>
+        <v>590</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E24" s="21">
         <v>40</v>
@@ -7365,10 +10990,10 @@
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="36" t="s">
-        <v>417</v>
+        <v>591</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E25" s="21">
         <v>27</v>
@@ -7388,13 +11013,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>418</v>
+        <v>592</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>419</v>
+        <v>593</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E26" s="21">
         <v>40</v>
@@ -7414,13 +11039,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>420</v>
+        <v>594</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>421</v>
+        <v>595</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E27" s="21">
         <v>18</v>
@@ -7441,10 +11066,10 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="36" t="s">
-        <v>422</v>
+        <v>596</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E28" s="21">
         <v>18</v>
@@ -7465,10 +11090,10 @@
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="36" t="s">
-        <v>423</v>
+        <v>597</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E29" s="21">
         <v>18</v>
@@ -7489,10 +11114,10 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="36" t="s">
-        <v>424</v>
+        <v>598</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E30" s="21">
         <v>27</v>
@@ -7513,10 +11138,10 @@
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="36" t="s">
-        <v>425</v>
+        <v>599</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E31" s="21">
         <v>18</v>
@@ -7537,10 +11162,10 @@
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="39" t="s">
-        <v>426</v>
+        <v>600</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E32" s="21">
         <v>12</v>
@@ -7560,13 +11185,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>427</v>
+        <v>601</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>428</v>
+        <v>602</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="E33" s="21">
         <v>32</v>
@@ -7586,13 +11211,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>429</v>
+        <v>603</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>430</v>
+        <v>604</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>431</v>
+        <v>605</v>
       </c>
       <c r="E34" s="21">
         <v>40</v>
@@ -7612,10 +11237,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>432</v>
+        <v>606</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>433</v>
+        <v>607</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -7631,7 +11256,7 @@
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="36" t="s">
-        <v>434</v>
+        <v>608</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -7647,7 +11272,7 @@
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="36" t="s">
-        <v>435</v>
+        <v>609</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -7659,7 +11284,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>436</v>
+        <v>610</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -7672,38 +11297,38 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4" t="s">
-        <v>437</v>
+        <v>611</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>438</v>
+        <v>612</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="7" t="s">
-        <v>439</v>
+        <v>613</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="4" t="s">
-        <v>440</v>
+        <v>614</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4" t="s">
-        <v>441</v>
+        <v>615</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>442</v>
+        <v>616</v>
       </c>
       <c r="D45" s="40"/>
       <c r="E45" s="7" t="s">
-        <v>443</v>
+        <v>617</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="4" t="s">
-        <v>444</v>
+        <v>618</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
